--- a/组装机配置表.xlsx
+++ b/组装机配置表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
   <si>
     <t>海象500额定400W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,174 @@
   </si>
   <si>
     <t>蓝宝石 Sapphire RX580（甜品级）8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>川宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">金士顿 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>240GB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> SSD SATA3.0  A400 </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>散热风扇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">飞利浦 好色三代 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>27英寸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，1700R中心曲率，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>海象500额定</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>400W</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>西部数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1T 7200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>转</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">英特尔（intel）i5-8500 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>六核</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">技嘉 B360N AORUS GAMING </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">WIFI </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巧克力 静音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼠标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固态硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DDR4  2400  16G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -177,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,6 +355,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -207,7 +396,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -215,11 +404,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -257,6 +461,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,13 +808,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="70.375" style="4" customWidth="1"/>
@@ -574,600 +823,819 @@
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7">
+    <row r="3" spans="1:5" s="10" customFormat="1">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D3" s="7">
         <v>1099</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="7">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D4" s="14">
         <v>1751</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="7">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" t="s">
+      <c r="D5" s="14"/>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="7">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D6" s="2">
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="7">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="14">
         <v>224</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E8" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="7">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="7">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="7">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D10" s="1">
         <v>799</v>
       </c>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="7">
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="7">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B12" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D12" s="5">
         <v>119</v>
       </c>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="7">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>99</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D13" s="2">
-        <f>SUM(D2:D12)</f>
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="D14" s="2">
+        <f>SUM(D3:D13)</f>
         <v>4340</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="s">
+    <row r="18" spans="1:8" s="9" customFormat="1">
+      <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B18" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C18" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9">
+    <row r="19" spans="1:8" s="10" customFormat="1">
+      <c r="A19" s="9">
         <v>1</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C19" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D19" s="9">
         <v>1099</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A19" s="9">
+    <row r="20" spans="1:8">
+      <c r="A20" s="9">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="14">
         <v>2499</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>23</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>32</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H20" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="9">
+    <row r="21" spans="1:8">
+      <c r="A21" s="9">
         <v>3</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" t="s">
         <v>24</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>31</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H21" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A21" s="9">
+    <row r="22" spans="1:8">
+      <c r="A22" s="9">
         <v>4</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D22" s="9">
         <v>2300</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A22" s="9">
+    <row r="23" spans="1:8">
+      <c r="A23" s="9">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D23" s="8">
         <v>239</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="9">
+    <row r="24" spans="1:8">
+      <c r="A24" s="9">
         <v>6</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D24" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="9">
+    <row r="25" spans="1:8">
+      <c r="A25" s="9">
         <v>7</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="14">
         <v>224</v>
       </c>
-      <c r="E24" s="13" t="s">
+      <c r="E25" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>900</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A25" s="9">
+    <row r="26" spans="1:8">
+      <c r="A26" s="9">
         <v>8</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="G25">
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="G26">
         <v>2349</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H26" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A26" s="9">
+    <row r="27" spans="1:8">
+      <c r="A27" s="9">
         <v>9</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D27" s="9">
         <v>799</v>
       </c>
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="9">
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="9">
         <v>10</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D28" s="8">
         <v>849</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="9">
+    <row r="29" spans="1:8">
+      <c r="A29" s="9">
         <v>11</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="9">
+      <c r="D29" s="9">
         <v>119</v>
       </c>
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A29" s="9">
+      <c r="E29" s="8"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="9">
         <v>12</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D30" s="9">
         <v>99</v>
       </c>
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D30" s="8">
-        <f>SUM(D18:D29)</f>
+      <c r="E30" s="8"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="D31" s="8">
+        <f>SUM(D19:D30)</f>
         <v>8237</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
+    <row r="35" spans="1:5" s="9" customFormat="1">
+      <c r="A35" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E35" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9">
+    <row r="36" spans="1:5" s="10" customFormat="1">
+      <c r="A36" s="9">
         <v>1</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B36" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D36" s="9">
         <v>1099</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E36" s="10" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="9">
+    <row r="37" spans="1:5">
+      <c r="A37" s="9">
         <v>2</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="14">
         <v>2499</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="9">
+    <row r="38" spans="1:5">
+      <c r="A38" s="9">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" t="s">
+      <c r="D38" s="14"/>
+      <c r="E38" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A38" s="9">
+    <row r="39" spans="1:5">
+      <c r="A39" s="9">
         <v>4</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="9">
+      <c r="D39" s="9">
         <v>1000</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A39" s="9">
+    <row r="40" spans="1:5">
+      <c r="A40" s="9">
         <v>5</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B40" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C40" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D40" s="8">
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A40" s="9">
+    <row r="41" spans="1:5">
+      <c r="A41" s="9">
         <v>6</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B41" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D41" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A41" s="9">
+    <row r="42" spans="1:5">
+      <c r="A42" s="9">
         <v>7</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="14">
         <v>224</v>
       </c>
-      <c r="E41" s="13" t="s">
+      <c r="E42" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A42" s="9">
+    <row r="43" spans="1:5">
+      <c r="A43" s="9">
         <v>8</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B43" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="13"/>
-      <c r="E42" s="13"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A43" s="9">
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="9">
         <v>9</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C44" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D44" s="9">
         <v>799</v>
       </c>
-      <c r="E43" s="8"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A44" s="9">
+      <c r="E44" s="8"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="9">
         <v>10</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D45" s="8">
         <v>849</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A45" s="9">
+    <row r="46" spans="1:5">
+      <c r="A46" s="9">
         <v>11</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B46" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D46" s="9">
         <v>119</v>
       </c>
-      <c r="E45" s="8"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A46" s="9">
+      <c r="E46" s="8"/>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="9">
         <v>12</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="9">
+      <c r="D47" s="9">
         <v>99</v>
       </c>
-      <c r="E46" s="8"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="D47" s="8">
-        <f>SUM(D35:D46)</f>
+      <c r="E47" s="8"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="D48" s="8">
+        <f>SUM(D36:D47)</f>
         <v>6937</v>
       </c>
     </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="17"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="20">
+        <v>20190618</v>
+      </c>
+      <c r="D50" s="21"/>
+      <c r="E50" s="22"/>
+    </row>
+    <row r="51" spans="1:5" s="13" customFormat="1">
+      <c r="A51" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="10" customFormat="1">
+      <c r="A52" s="23">
+        <v>1</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="23">
+        <v>909</v>
+      </c>
+      <c r="E52" s="26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="23">
+        <v>2</v>
+      </c>
+      <c r="B53" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="23">
+        <v>1459</v>
+      </c>
+      <c r="E53" s="22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="23">
+        <v>3</v>
+      </c>
+      <c r="B54" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="28"/>
+      <c r="D54" s="23">
+        <v>50</v>
+      </c>
+      <c r="E54" s="22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="23">
+        <v>4</v>
+      </c>
+      <c r="B55" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="D55" s="21">
+        <v>199</v>
+      </c>
+      <c r="E55" s="22"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="23">
+        <v>5</v>
+      </c>
+      <c r="B56" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" s="21">
+        <v>269</v>
+      </c>
+      <c r="E56" s="22"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="23">
+        <v>6</v>
+      </c>
+      <c r="B57" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D57" s="29">
+        <v>224</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="23">
+        <v>7</v>
+      </c>
+      <c r="B58" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="29"/>
+      <c r="E58" s="29"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="23">
+        <v>8</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="23">
+        <v>849</v>
+      </c>
+      <c r="E59" s="21"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="23">
+        <v>9</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="D60" s="21">
+        <v>469</v>
+      </c>
+      <c r="E60" s="22"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="23">
+        <v>10</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C61" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="23">
+        <v>119</v>
+      </c>
+      <c r="E61" s="21"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="23">
+        <v>11</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="28"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="21"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="21">
+        <f>SUM(D52:D61)</f>
+        <v>4547</v>
+      </c>
+      <c r="E63" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
+  <mergeCells count="13">
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="D37:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1181,7 +1649,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/组装机配置表.xlsx
+++ b/组装机配置表.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
   <si>
     <t>海象500额定400W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,12 +340,20 @@
     <t>DDR4  2400  16G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>619价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>618价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,6 +389,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -396,7 +411,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -419,11 +434,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -472,12 +496,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -501,11 +519,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -811,7 +847,7 @@
   <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -820,14 +856,15 @@
     <col min="3" max="3" width="70.375" style="4" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1"/>
     <col min="7" max="7" width="19.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="31"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1">
@@ -874,7 +911,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="32">
         <v>1751</v>
       </c>
       <c r="E4" t="s">
@@ -888,7 +925,7 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="32"/>
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -928,10 +965,10 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="32">
         <v>224</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="32" t="s">
         <v>17</v>
       </c>
     </row>
@@ -945,8 +982,8 @@
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7">
@@ -1051,7 +1088,7 @@
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="14">
+      <c r="D20" s="32">
         <v>2499</v>
       </c>
       <c r="E20" t="s">
@@ -1071,7 +1108,7 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="14"/>
+      <c r="D21" s="32"/>
       <c r="E21" t="s">
         <v>24</v>
       </c>
@@ -1131,10 +1168,10 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D25" s="32">
         <v>224</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="32" t="s">
         <v>17</v>
       </c>
       <c r="G25">
@@ -1154,8 +1191,8 @@
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
       <c r="G26">
         <v>2349</v>
       </c>
@@ -1266,7 +1303,7 @@
       <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D37" s="32">
         <v>2499</v>
       </c>
       <c r="E37" t="s">
@@ -1280,7 +1317,7 @@
       <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="14"/>
+      <c r="D38" s="32"/>
       <c r="E38" t="s">
         <v>24</v>
       </c>
@@ -1334,10 +1371,10 @@
       <c r="C42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="14">
+      <c r="D42" s="32">
         <v>224</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="32" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1351,8 +1388,8 @@
       <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9">
@@ -1413,216 +1450,253 @@
         <v>6937</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="17"/>
     </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="18" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20">
+      <c r="B50" s="30"/>
+      <c r="C50" s="18">
         <v>20190618</v>
       </c>
-      <c r="D50" s="21"/>
-      <c r="E50" s="22"/>
-    </row>
-    <row r="51" spans="1:5" s="13" customFormat="1">
-      <c r="A51" s="23" t="s">
+      <c r="D50" s="19"/>
+      <c r="E50" s="20"/>
+    </row>
+    <row r="51" spans="1:6" s="13" customFormat="1">
+      <c r="A51" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C51" s="23" t="s">
+      <c r="C51" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E51" s="23" t="s">
+      <c r="D51" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" s="10" customFormat="1">
-      <c r="A52" s="23">
+      <c r="F51" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1">
+      <c r="A52" s="21">
         <v>1</v>
       </c>
-      <c r="B52" s="24" t="s">
+      <c r="B52" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="23">
+      <c r="D52" s="21">
         <v>909</v>
       </c>
-      <c r="E52" s="26" t="s">
+      <c r="E52" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="23">
+      <c r="F52" s="14">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="21">
         <v>2</v>
       </c>
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D53" s="23">
+      <c r="D53" s="21">
         <v>1459</v>
       </c>
-      <c r="E53" s="22" t="s">
+      <c r="E53" s="20" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="23">
+      <c r="F53" s="34">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="21">
         <v>3</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="C54" s="28"/>
-      <c r="D54" s="23">
+      <c r="C54" s="26"/>
+      <c r="D54" s="21">
         <v>50</v>
       </c>
-      <c r="E54" s="22" t="s">
+      <c r="E54" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="23">
+      <c r="F54" s="15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="21">
         <v>4</v>
       </c>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="21">
+      <c r="D55" s="19">
         <v>199</v>
       </c>
-      <c r="E55" s="22"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="23">
+      <c r="E55" s="20"/>
+      <c r="F55" s="34">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="21">
         <v>5</v>
       </c>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="D56" s="21">
+      <c r="D56" s="19">
         <v>269</v>
       </c>
-      <c r="E56" s="22"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="23">
+      <c r="E56" s="20"/>
+      <c r="F56" s="34">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="21">
         <v>6</v>
       </c>
-      <c r="B57" s="27" t="s">
+      <c r="B57" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="29">
+      <c r="D57" s="28">
         <v>224</v>
       </c>
-      <c r="E57" s="29" t="s">
+      <c r="E57" s="28" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="23">
+      <c r="F57" s="33">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="21">
         <v>7</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="29"/>
-      <c r="E58" s="29"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="23">
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="33"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="21">
         <v>8</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="21">
         <v>849</v>
       </c>
-      <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="23">
+      <c r="E59" s="19"/>
+      <c r="F59" s="34">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="21">
         <v>9</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C60" s="30" t="s">
+      <c r="C60" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="21">
+      <c r="D60" s="19">
         <v>469</v>
       </c>
-      <c r="E60" s="22"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="23">
+      <c r="E60" s="20"/>
+      <c r="F60" s="34">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="21">
         <v>10</v>
       </c>
-      <c r="B61" s="27" t="s">
+      <c r="B61" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="D61" s="23">
+      <c r="D61" s="21">
         <v>119</v>
       </c>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="23">
+      <c r="E61" s="19"/>
+      <c r="F61" s="15">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="21">
         <v>11</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="C62" s="28"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="28"/>
-      <c r="D63" s="21">
+      <c r="C62" s="26"/>
+      <c r="D62" s="21"/>
+      <c r="E62" s="19"/>
+      <c r="F62" s="15"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="19">
         <f>SUM(D52:D61)</f>
         <v>4547</v>
       </c>
-      <c r="E63" s="22"/>
+      <c r="E63" s="20"/>
+      <c r="F63" s="15">
+        <f>SUM(F52:F62)</f>
+        <v>4972</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
+    <mergeCell ref="F57:F58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
     <mergeCell ref="A50:B50"/>

--- a/组装机配置表.xlsx
+++ b/组装机配置表.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="76">
   <si>
     <t>海象500额定400W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,12 +349,92 @@
     <t>618价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>内存条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4G DDR3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>500G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内存条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>机械硬盘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金士顿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8G DDR3  2400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8G DDR3 1600Mhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">500G </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1T  西部数据(WD)蓝盘 1TB SATA6Gb/s 7200转64MB 台式机械硬盘(WD10EZEX)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电脑配件采购清单20190708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -394,6 +475,24 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -447,7 +546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,6 +624,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -537,11 +648,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -861,10 +988,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31"/>
+      <c r="B1" s="35"/>
       <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:5" s="7" customFormat="1">
@@ -911,7 +1038,7 @@
       <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4" s="36">
         <v>1751</v>
       </c>
       <c r="E4" t="s">
@@ -925,7 +1052,7 @@
       <c r="B5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="32"/>
+      <c r="D5" s="36"/>
       <c r="E5" t="s">
         <v>24</v>
       </c>
@@ -965,10 +1092,10 @@
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="36">
         <v>224</v>
       </c>
-      <c r="E8" s="32" t="s">
+      <c r="E8" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -982,8 +1109,8 @@
       <c r="C9" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="7">
@@ -1088,7 +1215,7 @@
       <c r="C20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="32">
+      <c r="D20" s="36">
         <v>2499</v>
       </c>
       <c r="E20" t="s">
@@ -1108,7 +1235,7 @@
       <c r="B21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="32"/>
+      <c r="D21" s="36"/>
       <c r="E21" t="s">
         <v>24</v>
       </c>
@@ -1168,10 +1295,10 @@
       <c r="C25" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="32">
+      <c r="D25" s="36">
         <v>224</v>
       </c>
-      <c r="E25" s="32" t="s">
+      <c r="E25" s="36" t="s">
         <v>17</v>
       </c>
       <c r="G25">
@@ -1191,8 +1318,8 @@
       <c r="C26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
       <c r="G26">
         <v>2349</v>
       </c>
@@ -1303,7 +1430,7 @@
       <c r="C37" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="32">
+      <c r="D37" s="36">
         <v>2499</v>
       </c>
       <c r="E37" t="s">
@@ -1317,7 +1444,7 @@
       <c r="B38" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="32"/>
+      <c r="D38" s="36"/>
       <c r="E38" t="s">
         <v>24</v>
       </c>
@@ -1371,10 +1498,10 @@
       <c r="C42" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="36">
         <v>224</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E42" s="36" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1388,8 +1515,8 @@
       <c r="C43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="9">
@@ -1456,10 +1583,10 @@
       <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="30"/>
+      <c r="B50" s="34"/>
       <c r="C50" s="18">
         <v>20190618</v>
       </c>
@@ -1522,7 +1649,7 @@
       <c r="E53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="34">
+      <c r="F53" s="30">
         <v>1599</v>
       </c>
     </row>
@@ -1558,7 +1685,7 @@
         <v>199</v>
       </c>
       <c r="E55" s="20"/>
-      <c r="F55" s="34">
+      <c r="F55" s="30">
         <v>229</v>
       </c>
     </row>
@@ -1576,7 +1703,7 @@
         <v>269</v>
       </c>
       <c r="E56" s="20"/>
-      <c r="F56" s="34">
+      <c r="F56" s="30">
         <v>289</v>
       </c>
     </row>
@@ -1590,13 +1717,13 @@
       <c r="C57" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="D57" s="28">
+      <c r="D57" s="32">
         <v>224</v>
       </c>
-      <c r="E57" s="28" t="s">
+      <c r="E57" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="33">
+      <c r="F57" s="31">
         <v>224</v>
       </c>
     </row>
@@ -1610,9 +1737,9 @@
       <c r="C58" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="28"/>
-      <c r="E58" s="28"/>
-      <c r="F58" s="33"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="32"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="21">
@@ -1628,7 +1755,7 @@
         <v>849</v>
       </c>
       <c r="E59" s="19"/>
-      <c r="F59" s="34">
+      <c r="F59" s="30">
         <v>989</v>
       </c>
     </row>
@@ -1646,7 +1773,7 @@
         <v>469</v>
       </c>
       <c r="E60" s="20"/>
-      <c r="F60" s="34">
+      <c r="F60" s="30">
         <v>569</v>
       </c>
     </row>
@@ -1719,13 +1846,283 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="37">
+        <v>43654</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="12.875" customWidth="1"/>
+    <col min="4" max="4" width="44.375" style="39" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="29" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="29" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25">
+      <c r="A1" s="40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" s="38" customFormat="1">
+      <c r="A2" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="19">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="19">
+        <v>230</v>
+      </c>
+      <c r="F3" s="19">
+        <v>2</v>
+      </c>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="19">
+        <v>2</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="19">
+        <v>160</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="27">
+      <c r="A5" s="28">
+        <v>3</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="28">
+        <v>280</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1</v>
+      </c>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="20"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="20"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="20"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="20"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="20"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="20"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="20"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>